--- a/AutomationFramework/Resources/TestData/Driver.xlsx
+++ b/AutomationFramework/Resources/TestData/Driver.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABMMD9A\workspace\TestAutomation\Resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABMMD9A\git\TestAutomationFramework\AutomationFramework\Resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="5650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15200" windowHeight="5650"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>ApplicationName</t>
   </si>
   <si>
-    <t>TestApp</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>PostalCity</t>
+  </si>
+  <si>
+    <t>EOBF Internet</t>
   </si>
 </sst>
 </file>
@@ -1031,24 +1031,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.26953125" customWidth="1"/>
     <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="40.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>4</v>
@@ -1057,7 +1057,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
@@ -1071,13 +1071,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
@@ -1087,13 +1087,16 @@
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>"Chrome,IE,Edge,FireFox"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"UAT,QA,SIT"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1105,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CU2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
@@ -1201,124 +1204,124 @@
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="R1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="T1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="V1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="Y1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="Z1" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="AA1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="AE1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="AO1" s="7" t="str">
         <f>[1]TestData!AL2</f>
@@ -1560,34 +1563,34 @@
         <v>No</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>2356897412</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="6">
         <v>8806015601083</v>
@@ -1599,7 +1602,7 @@
         <v>20990101</v>
       </c>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2">
         <v>12345678</v>
@@ -1608,73 +1611,73 @@
         <v>20990101</v>
       </c>
       <c r="R2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T2">
         <v>19880601</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" t="s">
-        <v>56</v>
-      </c>
       <c r="AD2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM2" t="s">
         <v>61</v>
       </c>
-      <c r="AI2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AN2" t="s">
         <v>55</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>56</v>
       </c>
       <c r="AO2" t="str">
         <f>[1]TestData!AL3</f>
@@ -1965,7 +1968,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="7" t="str">
         <f>[1]TestData!D2</f>
